--- a/src/main/resources/static/excel/设备信息导入模板.xlsx
+++ b/src/main/resources/static/excel/设备信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17930" tabRatio="899"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="899"/>
   </bookViews>
   <sheets>
     <sheet name="安全设备及网络设备清单" sheetId="6" r:id="rId1"/>
@@ -17,21 +17,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>设备名称</t>
+    <r>
+      <t>设备名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>管理地址</t>
   </si>
   <si>
-    <t>厂商</t>
+    <t>类型</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>厂商</t>
   </si>
   <si>
     <t>用途描述</t>
@@ -41,27 +52,6 @@
   </si>
   <si>
     <t>SNMP community</t>
-  </si>
-  <si>
-    <t>CS-DCWL1-05-CSN7K-CO-1</t>
-  </si>
-  <si>
-    <t>10.25.65.20</t>
-  </si>
-  <si>
-    <t>思科</t>
-  </si>
-  <si>
-    <t>交换机</t>
-  </si>
-  <si>
-    <t>核心交换机1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>read</t>
   </si>
 </sst>
 </file>
@@ -74,7 +64,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +235,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,16 +589,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,10 +610,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,28 +634,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -662,19 +664,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,44 +685,47 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +742,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1106,29 +1111,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.75454545454545" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.7545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="5" width="8.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.3727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.3703703703704" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.2685185185185" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1151,391 +1156,311 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:3">
       <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
       <c r="C25" s="4"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:3">
       <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:3">
       <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
       <c r="C27" s="4"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:3">
       <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:3">
       <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
       <c r="C29" s="4"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:3">
       <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:3">
       <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
       <c r="C31" s="4"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:3">
       <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:3">
       <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
       <c r="C34" s="4"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:3">
       <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
       <c r="C35" s="4"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:3">
       <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
       <c r="C36" s="4"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:3">
       <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
       <c r="C37" s="4"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:3">
       <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
       <c r="C38" s="4"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:3">
       <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
       <c r="C39" s="4"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:3">
       <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:3">
       <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
       <c r="C41" s="4"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:3">
       <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
       <c r="C42" s="4"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:3">
       <c r="A43" s="3"/>
-      <c r="B43" s="2"/>
       <c r="C43" s="4"/>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:3">
       <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:3">
       <c r="A45" s="3"/>
-      <c r="B45" s="2"/>
       <c r="C45" s="4"/>
     </row>
   </sheetData>
